--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185551.6061519498</v>
+        <v>-187439.1876683515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>63.34143125931504</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>88.47998969135003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>77.15919157187211</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>151.2725262699916</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.2484302890167</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>342.8937221716741</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>266.691026020169</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.9757998939749</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>39.32476976423373</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.5677531302079</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3743261851595</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>15.9328547480722</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1661384044146246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869246</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.1972981758698</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.47170629426596</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>132.1963535857658</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>103.3722542220244</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>173.2244914873028</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.1618723868075</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.111343648812</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385065</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014438</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.14757544257679</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>49.14757544257671</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014438</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2950,16 +2950,16 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>78.97366804880247</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>162.5075037296121</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014438</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
         <v>99.1149309689872</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1016.548729587363</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1016.548729587363</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2376.569186901926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2122.807401540017</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>502.0437482952929</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C5" t="n">
-        <v>1002.312419342012</v>
+        <v>765.5114762992216</v>
       </c>
       <c r="D5" t="n">
-        <v>1002.312419342012</v>
+        <v>407.2457776924711</v>
       </c>
       <c r="E5" t="n">
-        <v>616.5241667437674</v>
+        <v>407.2457776924711</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>400.3002769432676</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714565</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1403.148569651485</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1017.360317053241</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>606.3744122636333</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2481.24961367155</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2481.24961367155</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2150.18672632798</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2150.18672632798</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.18672632798</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1761.414268258236</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>366.9506135266865</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>197.950813265019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123423</v>
+        <v>282.2470670630131</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123423</v>
+        <v>113.3108841351062</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>985.8343999908504</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>696.4172299538898</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558724</v>
+        <v>503.0396462065432</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123423</v>
+        <v>282.2470670630131</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.159861298439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609662</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609662</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>965.6009052722088</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.8083261286787</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.3058073983082</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C19" t="n">
-        <v>412.3696244704013</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>262.2529850580655</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>262.2529850580655</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>262.2529850580655</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>262.2529850580655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>111.834976606009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1165.464590184802</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1165.464590184802</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963255</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X19" t="n">
-        <v>581.3058073983082</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y19" t="n">
-        <v>581.3058073983082</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
@@ -5777,10 +5777,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.6878657662454</v>
+        <v>677.4616523829101</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>677.4616523829101</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655735</v>
+        <v>905.4512032809274</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655735</v>
+        <v>905.4512032809274</v>
       </c>
       <c r="X22" t="n">
-        <v>780.1289097400152</v>
+        <v>677.4616523829101</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.336330596485</v>
+        <v>677.4616523829101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>807.0580565471712</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>638.1218736192642</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164283</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164283</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185179</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1211.935115357083</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>957.2506271511957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>667.8334571142351</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>988.7065213774109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,61 +6215,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643327</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889913</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207833</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014297</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231268</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277038</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619838</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441946</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.623401105979</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324676</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>711.0729548808322</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>542.1367719529253</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>392.0201325405895</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6418,16 +6418,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>1159.85508492238</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229246</v>
+        <v>931.8655340243623</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793944</v>
+        <v>711.0729548808322</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701565</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>796.3635653766208</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1103.683698656583</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320616</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324676</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.0654479498179</v>
+        <v>439.5324299542186</v>
       </c>
       <c r="C31" t="n">
-        <v>450.8901303032817</v>
+        <v>359.7610480867414</v>
       </c>
       <c r="D31" t="n">
-        <v>356.5343561723166</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723166</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="F31" t="n">
         <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1459.793374657599</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.869751733083</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1027.213446977493</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>854.9847613608463</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>689.9530474986868</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636256</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643588</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307621</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504513</v>
@@ -6859,49 +6859,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,46 +6926,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6974,13 +6974,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,13 +7111,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,37 +7163,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,34 +7424,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649692</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7637,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907228</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100646</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987297907</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>127.6461250100646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814449</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297907</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208038</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>132.6826182701402</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>251.9715049194134</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>48.84084321165278</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5123572131673</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>95.94753917000601</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>89.35120747262344</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>148.7653891018036</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>52.48516390173437</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>35.4536006314049</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>2.126008749765398</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.6844047393605</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>202.9900678812513</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.06989642126837</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.5265920404082</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1173700.967364883</v>
+        <v>1173700.967364884</v>
       </c>
     </row>
     <row r="12">
@@ -26317,16 +26317,16 @@
         <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
+        <v>254168.8888295107</v>
+      </c>
+      <c r="F2" t="n">
         <v>254168.8888295108</v>
       </c>
-      <c r="F2" t="n">
-        <v>254168.8888295107</v>
-      </c>
       <c r="G2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
         <v>254168.8888295107</v>
@@ -26335,13 +26335,13 @@
         <v>254168.8888295108</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="K2" t="n">
         <v>264434.3892744253</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
         <v>266838.5752058923</v>
@@ -26353,7 +26353,7 @@
         <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925939</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284535</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338364</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143888</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275955</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275962</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275962</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275956</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871671</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,13 +26500,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-562763.3403232844</v>
       </c>
       <c r="C6" t="n">
-        <v>27204.53889126013</v>
+        <v>27204.53889126016</v>
       </c>
       <c r="D6" t="n">
-        <v>27204.53889126019</v>
+        <v>27204.53889126005</v>
       </c>
       <c r="E6" t="n">
-        <v>-378024.1432175412</v>
+        <v>-378121.602343513</v>
       </c>
       <c r="F6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="G6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="H6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="I6" t="n">
-        <v>147135.8932593549</v>
+        <v>147038.434133383</v>
       </c>
       <c r="J6" t="n">
-        <v>-29287.32593323779</v>
+        <v>-29384.7850592108</v>
       </c>
       <c r="K6" t="n">
-        <v>90433.28330572133</v>
+        <v>90414.78956778717</v>
       </c>
       <c r="L6" t="n">
         <v>121316.1057222403</v>
       </c>
       <c r="M6" t="n">
-        <v>-3142.002710729794</v>
+        <v>-3142.002710729168</v>
       </c>
       <c r="N6" t="n">
-        <v>131659.0125231074</v>
+        <v>131659.0125231073</v>
       </c>
       <c r="O6" t="n">
         <v>131659.0125231073</v>
       </c>
       <c r="P6" t="n">
-        <v>87496.40722026151</v>
+        <v>87496.40722026159</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.382405454101</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.382405454101</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.382405454101</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545569</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>343.5346144823964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>127.9683306663078</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>134.9863473781468</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>67.31212708210316</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.6276154526947</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>70.89044784912085</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.6204915453562</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>19.59084822180876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>18.80837012682008</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.1235505934241</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>13.60313571158721</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.771212764859371</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-4.632738637155853e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544362</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444948</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961207</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041492</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565524</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.694507644648</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104655</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358988</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.558410972485</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813466</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.959946685553</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677468</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361496</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081166</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298634</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557936</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263753</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469075</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337675</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892251</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351821</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544362</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444948</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961207</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041492</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565524</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.694507644648</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104655</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358988</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.558410972485</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813466</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.959946685553</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677468</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361496</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081166</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298634</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557936</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263753</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469075</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337675</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892251</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351821</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544362</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444948</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961207</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041492</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565524</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.694507644648</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104655</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358988</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.558410972485</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813466</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.959946685553</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677468</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361496</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081166</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298634</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557936</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263753</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469075</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337675</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892251</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351821</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,31 +33822,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,31 +34059,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856232</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415082</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109076</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221122</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349827</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490683</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>609.7603912467474</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504667</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980133</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411086</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714622</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209234</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789728</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415082</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109076</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221122</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490683</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504667</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980133</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192531</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714622</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209234</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415082</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109076</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221122</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953157</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>490.4480787240529</v>
+        <v>310.4243770504667</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980133</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411086</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523288</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209234</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686874</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520626</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095694</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086134</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352445</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414416</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,13 +37707,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
